--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_18.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>329307.8436362814</v>
+        <v>326744.8233003767</v>
       </c>
     </row>
     <row r="7">
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>315.3426039722192</v>
       </c>
       <c r="E2" t="n">
-        <v>196.791006835882</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.0239806348609</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>249.0719396942762</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>22.66160460810708</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>270.8259398684285</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>320.0601402632473</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>211.4108311297348</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,19 +1054,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>125.0913399740522</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -1102,25 +1102,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>7.26765656529962</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>35.95245435214169</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>157.9206545937567</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,10 +1300,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>24.55276019063742</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,19 +1339,19 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>101.9372973505745</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1424,10 +1424,10 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833703</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>104.4262124629291</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1616,7 +1616,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>47.84205650381972</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1898,7 +1898,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2005,22 +2005,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>28.75188085812005</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.433962646573</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.787132650393</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>123.9815576456766</v>
       </c>
       <c r="E22" t="n">
-        <v>2.268486125804257</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2287,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016461</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520957</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2482,16 +2482,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>122.6028762599955</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>111.3213230702134</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>124.6209519256077</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,10 +3661,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4135,22 +4135,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1380.775380419471</v>
+        <v>1084.819718160262</v>
       </c>
       <c r="C2" t="n">
-        <v>1380.775380419471</v>
+        <v>1084.819718160262</v>
       </c>
       <c r="D2" t="n">
-        <v>1380.775380419471</v>
+        <v>766.2918353600404</v>
       </c>
       <c r="E2" t="n">
-        <v>1181.996585635751</v>
+        <v>766.2918353600404</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="G2" t="n">
         <v>355.3059305704328</v>
@@ -4328,7 +4328,7 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2438.072681294235</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2438.072681294235</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2438.072681294235</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V2" t="n">
-        <v>2107.009793950665</v>
+        <v>1848.424808397153</v>
       </c>
       <c r="W2" t="n">
-        <v>1754.24113868055</v>
+        <v>1848.424808397153</v>
       </c>
       <c r="X2" t="n">
-        <v>1380.775380419471</v>
+        <v>1474.959050136074</v>
       </c>
       <c r="Y2" t="n">
-        <v>1380.775380419471</v>
+        <v>1084.819718160262</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057915</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>1057.327935297105</v>
+        <v>821.9680821844939</v>
       </c>
       <c r="M3" t="n">
-        <v>1420.589954256325</v>
+        <v>1456.147065963532</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1843.432194560478</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,13 +4462,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>370.2996089082458</v>
+        <v>224.2539356854975</v>
       </c>
       <c r="C4" t="n">
-        <v>201.3634259803388</v>
+        <v>224.2539356854975</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>74.13729627316178</v>
       </c>
       <c r="E4" t="n">
         <v>51.24678656800311</v>
@@ -4486,16 +4486,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4513,25 +4513,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1347.327782578335</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>1092.643294372448</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W4" t="n">
-        <v>819.0817389497932</v>
+        <v>673.036065727045</v>
       </c>
       <c r="X4" t="n">
-        <v>591.0921880517759</v>
+        <v>445.0465148290276</v>
       </c>
       <c r="Y4" t="n">
-        <v>370.2996089082458</v>
+        <v>224.2539356854975</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1540.262284242502</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="C5" t="n">
-        <v>1540.262284242502</v>
+        <v>1114.902695549579</v>
       </c>
       <c r="D5" t="n">
-        <v>1181.996585635751</v>
+        <v>756.6369969428285</v>
       </c>
       <c r="E5" t="n">
-        <v>1181.996585635751</v>
+        <v>756.6369969428285</v>
       </c>
       <c r="F5" t="n">
-        <v>771.0106808461439</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872915</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583055</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.808578312941</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X5" t="n">
-        <v>1540.262284242502</v>
+        <v>1505.042027525391</v>
       </c>
       <c r="Y5" t="n">
-        <v>1540.262284242502</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="6">
@@ -4620,49 +4620,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380223</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694941</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.793729425659</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>643.1898500774759</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="C7" t="n">
-        <v>474.253667149569</v>
+        <v>350.1023241168326</v>
       </c>
       <c r="D7" t="n">
-        <v>474.253667149569</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E7" t="n">
-        <v>326.3405735671759</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
-        <v>326.3405735671759</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
         <v>199.9856847044969</v>
@@ -4723,16 +4723,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4750,25 +4750,25 @@
         <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1310.884232784815</v>
       </c>
       <c r="U7" t="n">
-        <v>1114.255484944676</v>
+        <v>1021.765895288653</v>
       </c>
       <c r="V7" t="n">
-        <v>1114.255484944676</v>
+        <v>767.0814070827661</v>
       </c>
       <c r="W7" t="n">
-        <v>824.8383149077156</v>
+        <v>767.0814070827661</v>
       </c>
       <c r="X7" t="n">
-        <v>824.8383149077156</v>
+        <v>539.0918561847487</v>
       </c>
       <c r="Y7" t="n">
-        <v>824.8383149077156</v>
+        <v>531.7507889470724</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1454.537269016652</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="C8" t="n">
-        <v>1085.57475207624</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="D8" t="n">
-        <v>1085.57475207624</v>
+        <v>880.6454412161679</v>
       </c>
       <c r="E8" t="n">
-        <v>699.7864994779957</v>
+        <v>844.3298307594591</v>
       </c>
       <c r="F8" t="n">
-        <v>692.8409987287922</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>277.1362484530811</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4802,13 +4802,13 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4820,7 +4820,7 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.250581723851</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056585</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X8" t="n">
-        <v>2231.276441056585</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y8" t="n">
-        <v>1841.137109080773</v>
+        <v>880.6454412161679</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4857,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>854.8429682049857</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.90341785788</v>
+        <v>349.276519562732</v>
       </c>
       <c r="C10" t="n">
-        <v>520.9672349299731</v>
+        <v>349.276519562732</v>
       </c>
       <c r="D10" t="n">
-        <v>370.8505955176373</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>222.9375019352442</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F10" t="n">
-        <v>76.04755443733384</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
         <v>51.24678656800312</v>
@@ -4960,25 +4960,25 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>673.0360657270445</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>570.0690987062621</v>
       </c>
       <c r="X10" t="n">
-        <v>1092.34446183165</v>
+        <v>570.0690987062621</v>
       </c>
       <c r="Y10" t="n">
-        <v>871.5518826881197</v>
+        <v>349.276519562732</v>
       </c>
     </row>
     <row r="11">
@@ -5036,25 +5036,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998275</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5270,58 +5270,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5413,25 +5413,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>365.9405071576781</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>365.9405071576781</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5501,16 +5501,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5519,43 +5519,43 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637306</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5653,22 +5653,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453385</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453385</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5753,7 +5753,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5792,7 +5792,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L21" t="n">
-        <v>119.290296770379</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>802.9288273958725</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C22" t="n">
-        <v>633.9926444679656</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="D22" t="n">
-        <v>633.9926444679656</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5935,25 +5935,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.5772922261123</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="23">
@@ -5963,52 +5963,52 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6130,13 +6130,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6212,61 +6212,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6543,25 +6543,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637307</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>803.8641191832228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>634.9279362553159</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2267.47159895366</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>985.5125840134625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,31 +6686,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6889,19 +6889,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7029,13 +7029,13 @@
         <v>2148.04349261611</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>636.6680198981028</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>467.7318369701959</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>317.6151975578602</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7169,7 +7169,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7178,13 +7178,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7309,19 +7309,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7400,22 +7400,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014778</v>
@@ -7427,34 +7427,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
         <v>245.2306927803937</v>
@@ -7494,19 +7494,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7622,43 +7622,43 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,16 +7722,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>95.58405025273903</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7783,19 +7783,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8055,19 +8055,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>342.9044714621886</v>
+        <v>231.2582814363242</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
-        <v>60.50016306149547</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878346</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>265.0304328515143</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>265.0304328515144</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,10 +8550,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9401,13 +9401,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>39.34043764846378</v>
       </c>
       <c r="E2" t="n">
-        <v>185.1393632363798</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>123.7723580384621</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>40.32043864788686</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>114.1584408891657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>43.26526345294987</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>117.6820817884491</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>119.8635921600923</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.73700564187584</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>24.63391537253577</v>
       </c>
       <c r="E22" t="n">
-        <v>144.1654765207649</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24370,16 +24370,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24838,25 +24838,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>69.70496293143118</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55.2110282563296</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,10 +25549,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,22 +26023,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>983675.2426495894</v>
+        <v>983675.2426495897</v>
       </c>
     </row>
     <row r="3">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>335917.9865019028</v>
+        <v>335917.986501903</v>
       </c>
       <c r="C2" t="n">
-        <v>369468.7964389272</v>
+        <v>369468.7964389274</v>
       </c>
       <c r="D2" t="n">
-        <v>369468.7964389274</v>
+        <v>369468.7964389273</v>
       </c>
       <c r="E2" t="n">
-        <v>363215.9698605027</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="F2" t="n">
         <v>363215.9698605026</v>
@@ -26332,25 +26332,25 @@
         <v>363215.9698605028</v>
       </c>
       <c r="I2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605029</v>
       </c>
       <c r="J2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605027</v>
       </c>
       <c r="K2" t="n">
-        <v>363215.9698605028</v>
+        <v>363215.9698605026</v>
       </c>
       <c r="L2" t="n">
         <v>363215.9698605028</v>
       </c>
       <c r="M2" t="n">
+        <v>363215.9698605027</v>
+      </c>
+      <c r="N2" t="n">
+        <v>363215.9698605026</v>
+      </c>
+      <c r="O2" t="n">
         <v>363215.9698605028</v>
-      </c>
-      <c r="N2" t="n">
-        <v>363215.9698605028</v>
-      </c>
-      <c r="O2" t="n">
-        <v>363215.9698605027</v>
       </c>
       <c r="P2" t="n">
         <v>363215.9698605027</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90558.97983407912</v>
+        <v>90558.97983407926</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467443</v>
@@ -26430,31 +26430,31 @@
         <v>7507.368461719667</v>
       </c>
       <c r="G4" t="n">
-        <v>7507.36846171967</v>
+        <v>7507.36846171966</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719677</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="I4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="J4" t="n">
-        <v>7507.368461719656</v>
+        <v>7507.368461719721</v>
       </c>
       <c r="K4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="L4" t="n">
-        <v>7507.368461719679</v>
+        <v>7507.368461719678</v>
       </c>
       <c r="M4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719679</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="O4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719729</v>
       </c>
       <c r="P4" t="n">
         <v>7507.368461719667</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.7724398447</v>
+      </c>
+      <c r="C5" t="n">
+        <v>92937.7724398447</v>
+      </c>
+      <c r="D5" t="n">
         <v>92937.77243984472</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.77243984472</v>
-      </c>
-      <c r="D5" t="n">
-        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-962330.5493479409</v>
+        <v>-962516.9427364796</v>
       </c>
       <c r="C6" t="n">
+        <v>143417.1604523383</v>
+      </c>
+      <c r="D6" t="n">
         <v>143417.1604523382</v>
       </c>
-      <c r="D6" t="n">
-        <v>143417.1604523383</v>
-      </c>
       <c r="E6" t="n">
-        <v>-252899.3700496698</v>
+        <v>-252934.1079751057</v>
       </c>
       <c r="F6" t="n">
-        <v>254586.0715748759</v>
+        <v>254551.3336494401</v>
       </c>
       <c r="G6" t="n">
-        <v>254586.071574876</v>
+        <v>254551.3336494403</v>
       </c>
       <c r="H6" t="n">
-        <v>254586.071574876</v>
+        <v>254551.3336494403</v>
       </c>
       <c r="I6" t="n">
-        <v>254586.071574876</v>
+        <v>254551.3336494404</v>
       </c>
       <c r="J6" t="n">
-        <v>86980.89376489331</v>
+        <v>86946.15583945769</v>
       </c>
       <c r="K6" t="n">
-        <v>254586.071574876</v>
+        <v>254551.3336494401</v>
       </c>
       <c r="L6" t="n">
-        <v>254586.0715748761</v>
+        <v>254551.3336494403</v>
       </c>
       <c r="M6" t="n">
-        <v>121978.7778459494</v>
+        <v>121944.0399205136</v>
       </c>
       <c r="N6" t="n">
-        <v>254586.071574876</v>
+        <v>254551.3336494401</v>
       </c>
       <c r="O6" t="n">
-        <v>254586.0715748759</v>
+        <v>254551.3336494402</v>
       </c>
       <c r="P6" t="n">
-        <v>254586.0715748759</v>
+        <v>254551.3336494402</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,16 +27376,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.4282347639334319</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>78.68031877585867</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,13 +27537,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27585,10 +27585,10 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27597,7 +27597,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>15.69705846816254</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>86.81590547846412</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>158.3202695487342</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,19 +27774,19 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>41.21526007075202</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>211.3169967867952</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>345.9779157201201</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
-        <v>143.0978979686487</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>141.7538398541668</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28059,19 +28059,19 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>184.5857009860165</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28147,7 +28147,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28257,7 +28257,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-1.131184035330079e-12</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -28618,7 +28618,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -28728,7 +28728,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,19 +31835,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>399.1902208908131</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>671.9287955253226</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,13 +31856,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,19 +32072,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>438.5310889592611</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32096,7 +32096,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32555,7 +32555,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32567,13 +32567,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>284.1014732918236</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32725,7 +32725,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669223</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>151.9914336104081</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,31 +33497,31 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>632.5879274568745</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33749,16 +33749,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>551.7051287319853</v>
+        <v>279.0775374915855</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,19 +33974,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>231.5286848890172</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34369,7 +34369,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L44" t="n">
         <v>867.846407116256</v>
@@ -34442,19 +34442,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M45" t="n">
-        <v>732.4825987614915</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
+        <v>528.9386420741744</v>
+      </c>
+      <c r="M3" t="n">
         <v>640.5848321000389</v>
       </c>
-      <c r="M3" t="n">
-        <v>366.9313322820406</v>
-      </c>
       <c r="N3" t="n">
-        <v>451.6972626543695</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34799,7 +34799,7 @@
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313194</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>562.7107934893645</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>631.9617651335549</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,19 +35483,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>261.3487819164541</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>529.7947616033043</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,13 +35504,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,19 +35720,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35744,7 +35744,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35887,7 +35887,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462684</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35902,7 +35902,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36215,13 +36215,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>490.4538935348562</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37397,16 +37397,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>409.1088842875408</v>
+        <v>136.4812930471411</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,19 +37622,19 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>92.97430510914305</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
@@ -38090,19 +38090,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M45" t="n">
-        <v>590.3485648394733</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
